--- a/biology/Botanique/Didier_Dagueneau/Didier_Dagueneau.xlsx
+++ b/biology/Botanique/Didier_Dagueneau/Didier_Dagueneau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Didier Dagueneau, né le 7 juin 1956[1] à Cosne-Cours-sur-Loire (Nièvre) et mort le 17 septembre 2008 à Hautefaye (Dordogne)[1] dans un accident d'ULM[2],[3],[4], est un vigneron français de notoriété mondiale, connu autant pour sa personnalité passionnée et atypique que pour la qualité de ses pouilly-fumé.[réf. nécessaire]
-Ses cuvées Silex, Pur Sang et Buisson Renard, entre autres, sont considérées par bien des sommeliers et bien des amateurs comme les expressions les plus singulières du sauvignon[5].[réf. nécessaire]
-À sa mort, le domaine familial de Saint-Andelain est repris par son fils Louis-Benjamin Dagueneau[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Didier Dagueneau, né le 7 juin 1956 à Cosne-Cours-sur-Loire (Nièvre) et mort le 17 septembre 2008 à Hautefaye (Dordogne) dans un accident d'ULM est un vigneron français de notoriété mondiale, connu autant pour sa personnalité passionnée et atypique que pour la qualité de ses pouilly-fumé.[réf. nécessaire]
+Ses cuvées Silex, Pur Sang et Buisson Renard, entre autres, sont considérées par bien des sommeliers et bien des amateurs comme les expressions les plus singulières du sauvignon.[réf. nécessaire]
+À sa mort, le domaine familial de Saint-Andelain est repris par son fils Louis-Benjamin Dagueneau.
 </t>
         </is>
       </c>
